--- a/nodes_source_analyses/energy/energy/energy_chp_local_engine_network_gas.xlsx
+++ b/nodes_source_analyses/energy/energy/energy_chp_local_engine_network_gas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlottevonm/Code/etdataset/nodes_source_analyses/energy/energy/AAA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Code/etdataset/nodes_source_analyses/energy/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636CF6C1-2BA4-7F4C-8657-1F9A311B2533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A069D4-2A94-1F4C-8BAE-3DFF1272527C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13280" yWindow="500" windowWidth="25600" windowHeight="21760" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="129">
   <si>
     <t>Source</t>
   </si>
@@ -145,9 +145,6 @@
     <t xml:space="preserve">Decmmmissioning cost </t>
   </si>
   <si>
-    <t>Electricity output capacity</t>
-  </si>
-  <si>
     <t>euro/MWh</t>
   </si>
   <si>
@@ -187,12 +184,6 @@
     <t>part_load_operating_point</t>
   </si>
   <si>
-    <t>electricity_output_capacity</t>
-  </si>
-  <si>
-    <t>heat_output_capacity</t>
-  </si>
-  <si>
     <t>initial_investment</t>
   </si>
   <si>
@@ -227,9 +218,6 @@
   </si>
   <si>
     <t>quintel/etsource@0277ad226491f5aae44c874b298cbcf694d2f6cb</t>
-  </si>
-  <si>
-    <t>Heat output capacity</t>
   </si>
   <si>
     <t>Investment cost with ccs</t>
@@ -612,6 +600,12 @@
   </si>
   <si>
     <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
+  <si>
+    <t>typical_input_capacity</t>
+  </si>
+  <si>
+    <t>Input capacity</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1467,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1743,7 +1737,6 @@
     <xf numFmtId="164" fontId="29" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1771,6 +1764,13 @@
     <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="281">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2647,12 +2647,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="17" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="17"/>
+    <col min="1" max="1" width="3.5" style="25" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="17" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="23" customFormat="1">
@@ -2678,16 +2678,16 @@
         <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2712,7 +2712,7 @@
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="94" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C9" s="95"/>
     </row>
@@ -2724,31 +2724,31 @@
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="96" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C11" s="98" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="96"/>
       <c r="C12" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="96"/>
       <c r="C13" s="99" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="96"/>
       <c r="C14" s="97" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2759,58 +2759,58 @@
     <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="96" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C16" s="100" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="96"/>
       <c r="C17" s="101" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="96"/>
       <c r="C18" s="102" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="96"/>
       <c r="C19" s="103" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="104"/>
       <c r="C20" s="105" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="104"/>
       <c r="C21" s="106" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="104"/>
       <c r="C22" s="107" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" s="104"/>
       <c r="C23" s="108" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2824,25 +2824,25 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K33"/>
+  <dimension ref="B1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="31" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="31" customWidth="1"/>
     <col min="3" max="3" width="46" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="31" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="31" customWidth="1"/>
     <col min="7" max="7" width="45" style="31" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="31" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" style="31" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="31"/>
+    <col min="8" max="8" width="5.1640625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="51.5" style="31" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -2852,28 +2852,28 @@
       <c r="G1" s="29"/>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="160" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="162"/>
+      <c r="B2" s="159" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="161"/>
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="163"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="165"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="164"/>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="2:11" ht="30" customHeight="1">
-      <c r="B4" s="166"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="168"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="167"/>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
     </row>
@@ -2894,7 +2894,7 @@
     <row r="7" spans="2:11" s="38" customFormat="1" ht="19">
       <c r="B7" s="109"/>
       <c r="C7" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="110" t="s">
         <v>14</v>
@@ -2926,7 +2926,7 @@
     <row r="9" spans="2:11" s="38" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="19"/>
       <c r="C9" s="14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D9" s="26"/>
       <c r="E9" s="14"/>
@@ -2939,7 +2939,7 @@
     <row r="10" spans="2:11" ht="17" thickBot="1">
       <c r="B10" s="34"/>
       <c r="C10" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>5</v>
@@ -2951,7 +2951,7 @@
       <c r="G10" s="30"/>
       <c r="H10" s="30"/>
       <c r="I10" s="28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J10" s="117"/>
       <c r="K10" s="29"/>
@@ -2959,7 +2959,7 @@
     <row r="11" spans="2:11" ht="17" thickBot="1">
       <c r="B11" s="34"/>
       <c r="C11" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>5</v>
@@ -2971,7 +2971,7 @@
       <c r="G11" s="30"/>
       <c r="H11" s="30"/>
       <c r="I11" s="28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J11" s="117"/>
       <c r="K11" s="29"/>
@@ -2979,7 +2979,7 @@
     <row r="12" spans="2:11" ht="17" thickBot="1">
       <c r="B12" s="34"/>
       <c r="C12" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>5</v>
@@ -2991,7 +2991,7 @@
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
       <c r="I12" s="28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J12" s="117"/>
       <c r="K12" s="29"/>
@@ -2999,7 +2999,7 @@
     <row r="13" spans="2:11" ht="17" thickBot="1">
       <c r="B13" s="34"/>
       <c r="C13" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>5</v>
@@ -3011,7 +3011,7 @@
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
       <c r="I13" s="28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J13" s="117"/>
       <c r="K13" s="29"/>
@@ -3019,50 +3019,41 @@
     <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="34"/>
       <c r="C14" s="30" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E14" s="41">
         <f>'Research data'!G6</f>
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="F14" s="30"/>
-      <c r="G14" s="30" t="s">
-        <v>28</v>
+      <c r="G14" s="170" t="s">
+        <v>128</v>
       </c>
       <c r="H14" s="30"/>
       <c r="I14" s="28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J14" s="117"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1">
+    <row r="15" spans="2:11">
       <c r="B15" s="34"/>
-      <c r="C15" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="159" t="e">
-        <f>E14*#REF!/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="28" t="s">
-        <v>55</v>
-      </c>
+      <c r="C15" s="82"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
       <c r="J15" s="117"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" ht="17" thickBot="1">
       <c r="B16" s="34"/>
-      <c r="C16" s="82"/>
+      <c r="C16" s="14" t="s">
+        <v>74</v>
+      </c>
       <c r="D16" s="112"/>
       <c r="E16" s="113"/>
       <c r="F16" s="29"/>
@@ -3073,143 +3064,151 @@
     </row>
     <row r="17" spans="2:10" ht="17" thickBot="1">
       <c r="B17" s="34"/>
-      <c r="C17" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="112"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
+      <c r="C17" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="41">
+        <f>'Research data'!G17</f>
+        <v>1200000</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="30"/>
+      <c r="I17" s="93" t="s">
+        <v>87</v>
+      </c>
       <c r="J17" s="117"/>
     </row>
     <row r="18" spans="2:10" ht="17" thickBot="1">
       <c r="B18" s="34"/>
       <c r="C18" s="30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="41">
-        <f>'Research data'!G16</f>
-        <v>1200000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="30"/>
       <c r="G18" s="30" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="H18" s="30"/>
-      <c r="I18" s="93" t="s">
-        <v>91</v>
+      <c r="I18" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="J18" s="117"/>
     </row>
     <row r="19" spans="2:10" ht="17" thickBot="1">
       <c r="B19" s="34"/>
       <c r="C19" s="30" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="41">
         <v>0</v>
       </c>
       <c r="F19" s="30"/>
       <c r="G19" s="30" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="H19" s="30"/>
       <c r="I19" s="28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J19" s="117"/>
     </row>
     <row r="20" spans="2:10" ht="17" thickBot="1">
       <c r="B20" s="34"/>
       <c r="C20" s="30" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" s="41">
         <v>0</v>
       </c>
       <c r="F20" s="30"/>
       <c r="G20" s="30" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H20" s="30"/>
       <c r="I20" s="28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" ht="17" thickBot="1">
       <c r="B21" s="34"/>
       <c r="C21" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="41">
+        <v>51</v>
+      </c>
+      <c r="E21" s="111">
+        <f>'Research data'!G19</f>
         <v>0</v>
       </c>
       <c r="F21" s="30"/>
       <c r="G21" s="30" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="H21" s="30"/>
-      <c r="I21" s="28" t="s">
-        <v>55</v>
+      <c r="I21" s="93" t="s">
+        <v>87</v>
       </c>
       <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" ht="17" thickBot="1">
       <c r="B22" s="34"/>
       <c r="C22" s="30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="111">
-        <f>'Research data'!G18</f>
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="E22" s="40">
+        <f>'Research data'!G21</f>
+        <v>16</v>
       </c>
       <c r="F22" s="30"/>
       <c r="G22" s="30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H22" s="30"/>
       <c r="I22" s="93" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J22" s="117"/>
     </row>
     <row r="23" spans="2:10" ht="17" thickBot="1">
       <c r="B23" s="34"/>
       <c r="C23" s="30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="40">
-        <f>'Research data'!G20</f>
-        <v>16</v>
+        <v>50</v>
+      </c>
+      <c r="E23" s="114">
+        <v>0</v>
       </c>
       <c r="F23" s="30"/>
       <c r="G23" s="30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H23" s="30"/>
-      <c r="I23" s="93" t="s">
-        <v>91</v>
+      <c r="I23" s="124" t="s">
+        <v>52</v>
       </c>
       <c r="J23" s="117"/>
     </row>
@@ -3219,180 +3218,159 @@
         <v>49</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="114">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E24" s="41">
+        <v>0.04</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="30" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="H24" s="30"/>
-      <c r="I24" s="124" t="s">
-        <v>55</v>
+      <c r="I24" s="28" t="s">
+        <v>126</v>
       </c>
       <c r="J24" s="117"/>
     </row>
     <row r="25" spans="2:10" ht="17" thickBot="1">
       <c r="B25" s="34"/>
       <c r="C25" s="30" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E25" s="41">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F25" s="30"/>
-      <c r="G25" s="30" t="s">
-        <v>23</v>
-      </c>
+      <c r="G25" s="30"/>
       <c r="H25" s="30"/>
       <c r="I25" s="28" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="J25" s="117"/>
     </row>
-    <row r="26" spans="2:10" ht="17" thickBot="1">
+    <row r="26" spans="2:10">
       <c r="B26" s="34"/>
-      <c r="C26" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="41">
-        <v>0</v>
-      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="115"/>
       <c r="F26" s="30"/>
       <c r="G26" s="30"/>
       <c r="H26" s="30"/>
-      <c r="I26" s="28" t="s">
-        <v>55</v>
-      </c>
+      <c r="I26" s="29"/>
       <c r="J26" s="117"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" ht="17" thickBot="1">
       <c r="B27" s="34"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="18"/>
+      <c r="C27" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="112"/>
       <c r="E27" s="115"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
       <c r="I27" s="29"/>
       <c r="J27" s="117"/>
     </row>
     <row r="28" spans="2:10" ht="17" thickBot="1">
       <c r="B28" s="34"/>
-      <c r="C28" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="112"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
+      <c r="C28" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="41">
+        <f>'Research data'!G12</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="30"/>
+      <c r="I28" s="28" t="s">
+        <v>95</v>
+      </c>
       <c r="J28" s="117"/>
     </row>
     <row r="29" spans="2:10" ht="17" thickBot="1">
       <c r="B29" s="34"/>
       <c r="C29" s="30" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="41">
-        <f>'Research data'!G11</f>
-        <v>5.0000000000000001E-4</v>
+        <v>2</v>
+      </c>
+      <c r="E29" s="111">
+        <f>'Research data'!G13</f>
+        <v>1</v>
       </c>
       <c r="F29" s="30"/>
       <c r="G29" s="30" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H29" s="30"/>
-      <c r="I29" s="28" t="s">
-        <v>99</v>
+      <c r="I29" s="126" t="s">
+        <v>95</v>
       </c>
       <c r="J29" s="117"/>
     </row>
     <row r="30" spans="2:10" ht="17" thickBot="1">
       <c r="B30" s="34"/>
       <c r="C30" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="111">
-        <f>'Research data'!G12</f>
-        <v>1</v>
+      <c r="E30" s="41">
+        <f>'Research data'!G14</f>
+        <v>20</v>
       </c>
       <c r="F30" s="30"/>
       <c r="G30" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H30" s="30"/>
-      <c r="I30" s="126" t="s">
-        <v>99</v>
+      <c r="I30" s="127" t="s">
+        <v>95</v>
       </c>
       <c r="J30" s="117"/>
     </row>
     <row r="31" spans="2:10" ht="17" thickBot="1">
       <c r="B31" s="34"/>
       <c r="C31" s="30" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E31" s="41">
-        <f>'Research data'!G13</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F31" s="30"/>
-      <c r="G31" s="30" t="s">
-        <v>25</v>
-      </c>
+      <c r="G31" s="30"/>
       <c r="H31" s="30"/>
-      <c r="I31" s="127" t="s">
-        <v>99</v>
+      <c r="I31" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="J31" s="117"/>
     </row>
-    <row r="32" spans="2:10" ht="17" thickBot="1">
-      <c r="B32" s="34"/>
-      <c r="C32" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="41">
-        <v>0</v>
-      </c>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J32" s="117"/>
-    </row>
-    <row r="33" spans="2:10" ht="20" customHeight="1" thickBot="1">
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="37"/>
+    <row r="32" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B32" s="35"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3408,28 +3386,28 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:N22"/>
+  <dimension ref="B1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="63" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="63" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="63" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="63" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="63" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="63" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="63" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="64" customWidth="1"/>
+    <col min="1" max="2" width="3.5" style="63" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="63" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="63" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="63" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="63" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="63" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="63" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="64" customWidth="1"/>
     <col min="10" max="10" width="3" style="64" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="64" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" style="64" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="64" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="64" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" style="64" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" style="64" customWidth="1"/>
     <col min="14" max="14" width="60" style="63" customWidth="1"/>
-    <col min="15" max="16384" width="10.7109375" style="63"/>
+    <col min="15" max="16384" width="10.6640625" style="63"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="17" thickBot="1"/>
@@ -3451,7 +3429,7 @@
     <row r="3" spans="2:14" s="20" customFormat="1">
       <c r="B3" s="19"/>
       <c r="C3" s="123" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3459,22 +3437,22 @@
         <v>14</v>
       </c>
       <c r="G3" s="123" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H3" s="123"/>
       <c r="I3" s="61" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J3" s="61"/>
       <c r="K3" s="61" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L3" s="61"/>
       <c r="M3" s="61" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N3" s="142" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="2:14">
@@ -3495,7 +3473,7 @@
     <row r="5" spans="2:14" ht="17" thickBot="1">
       <c r="B5" s="68"/>
       <c r="C5" s="27" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -3511,60 +3489,55 @@
     </row>
     <row r="6" spans="2:14" ht="17" thickBot="1">
       <c r="B6" s="68"/>
-      <c r="C6" s="138" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="72" t="s">
-        <v>61</v>
+      <c r="C6" s="169" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="168" t="s">
+        <v>57</v>
       </c>
       <c r="G6" s="73">
-        <f>ROUND(2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="73">
-        <f>Notes!E12</f>
-        <v>2</v>
-      </c>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="70"/>
+        <f>ROUND(G7/G8,1)</f>
+        <v>4.7</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
       <c r="N6" s="144"/>
     </row>
     <row r="7" spans="2:14" ht="17" thickBot="1">
       <c r="B7" s="68"/>
       <c r="C7" s="138" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="D7" s="71"/>
       <c r="E7" s="71"/>
-      <c r="F7" s="139" t="s">
-        <v>3</v>
+      <c r="F7" s="72" t="s">
+        <v>57</v>
       </c>
       <c r="G7" s="73">
-        <f>I7</f>
-        <v>43</v>
+        <f>ROUND(2,0)</f>
+        <v>2</v>
       </c>
       <c r="H7" s="74"/>
       <c r="I7" s="73">
-        <f>Notes!E14</f>
-        <v>43</v>
+        <f>Notes!E12</f>
+        <v>2</v>
       </c>
       <c r="J7" s="70"/>
       <c r="K7" s="70"/>
       <c r="L7" s="76"/>
       <c r="M7" s="70"/>
-      <c r="N7" s="145" t="s">
-        <v>115</v>
-      </c>
+      <c r="N7" s="144"/>
     </row>
     <row r="8" spans="2:14" ht="17" thickBot="1">
       <c r="B8" s="68"/>
       <c r="C8" s="138" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D8" s="71"/>
       <c r="E8" s="71"/>
@@ -3572,329 +3545,356 @@
         <v>3</v>
       </c>
       <c r="G8" s="73">
-        <f>I8</f>
-        <v>47</v>
+        <f>I8/100</f>
+        <v>0.43</v>
       </c>
       <c r="H8" s="74"/>
       <c r="I8" s="73">
-        <f>Notes!E15</f>
-        <v>47</v>
+        <f>Notes!E14</f>
+        <v>43</v>
       </c>
       <c r="J8" s="70"/>
       <c r="K8" s="70"/>
       <c r="L8" s="76"/>
       <c r="M8" s="70"/>
       <c r="N8" s="145" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="17" thickBot="1">
       <c r="B9" s="68"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
+      <c r="C9" s="138" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="139" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="73">
+        <f>I9/100</f>
+        <v>0.47</v>
+      </c>
+      <c r="H9" s="74"/>
+      <c r="I9" s="73">
+        <f>Notes!E15</f>
+        <v>47</v>
+      </c>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
       <c r="L9" s="76"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="144"/>
-    </row>
-    <row r="10" spans="2:14" ht="17" thickBot="1">
+      <c r="M9" s="70"/>
+      <c r="N9" s="145" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
       <c r="B10" s="68"/>
-      <c r="C10" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
       <c r="L10" s="76"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="146" t="s">
-        <v>98</v>
-      </c>
+      <c r="M10" s="79"/>
+      <c r="N10" s="144"/>
     </row>
     <row r="11" spans="2:14" ht="17" thickBot="1">
       <c r="B11" s="68"/>
-      <c r="C11" s="129" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="128">
-        <f>ROUND(K11,4)</f>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="H11" s="78"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="128">
-        <f>G6*0.1/400</f>
-        <v>5.0000000000000001E-4</v>
-      </c>
+      <c r="C11" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
       <c r="L11" s="76"/>
       <c r="M11" s="12"/>
       <c r="N11" s="146" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="17" thickBot="1">
       <c r="B12" s="68"/>
-      <c r="C12" s="130" t="s">
+      <c r="C12" s="129" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="128">
+        <f>ROUND(K12,4)</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H12" s="78"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="128">
+        <f>G7*0.1/400</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L12" s="76"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="146" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="17" thickBot="1">
+      <c r="B13" s="68"/>
+      <c r="C13" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="72" t="s">
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="84">
+      <c r="G13" s="84">
         <f>ROUND(1,1)</f>
         <v>1</v>
-      </c>
-      <c r="H12" s="79"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="73">
-        <v>1</v>
-      </c>
-      <c r="L12" s="70"/>
-      <c r="M12" s="73">
-        <f>Notes!E55</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N12" s="147"/>
-    </row>
-    <row r="13" spans="2:14" ht="17" thickBot="1">
-      <c r="B13" s="68"/>
-      <c r="C13" s="85" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="72" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="86">
-        <f>M13</f>
-        <v>20</v>
       </c>
       <c r="H13" s="79"/>
       <c r="I13" s="80"/>
       <c r="J13" s="80"/>
-      <c r="K13" s="75">
+      <c r="K13" s="73">
+        <v>1</v>
+      </c>
+      <c r="L13" s="70"/>
+      <c r="M13" s="73">
+        <f>Notes!E55</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N13" s="147"/>
+    </row>
+    <row r="14" spans="2:14" ht="17" thickBot="1">
+      <c r="B14" s="68"/>
+      <c r="C14" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="86">
+        <f>M14</f>
+        <v>20</v>
+      </c>
+      <c r="H14" s="79"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="75">
         <v>25</v>
       </c>
-      <c r="L13" s="70"/>
-      <c r="M13" s="75">
+      <c r="L14" s="70"/>
+      <c r="M14" s="75">
         <f>Notes!E56</f>
         <v>20</v>
       </c>
-      <c r="N13" s="154" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="68"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="144"/>
-    </row>
-    <row r="15" spans="2:14" ht="17" thickBot="1">
+      <c r="N14" s="154" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
       <c r="B15" s="68"/>
-      <c r="C15" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
       <c r="L15" s="76"/>
-      <c r="M15" s="12"/>
+      <c r="M15" s="80"/>
       <c r="N15" s="144"/>
     </row>
     <row r="16" spans="2:14" ht="17" thickBot="1">
       <c r="B16" s="68"/>
-      <c r="C16" s="118" t="s">
-        <v>85</v>
+      <c r="C16" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
-      <c r="F16" s="118" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="84">
-        <f>ROUND(G17*G6*1000,2)</f>
-        <v>1200000</v>
-      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="79"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
       <c r="L16" s="76"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="148"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="144"/>
     </row>
     <row r="17" spans="2:14" ht="17" thickBot="1">
       <c r="B17" s="68"/>
-      <c r="C17" s="87" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="119" t="s">
-        <v>82</v>
+      <c r="C17" s="118" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="118" t="s">
+        <v>33</v>
       </c>
       <c r="G17" s="84">
-        <f>I17</f>
-        <v>600</v>
-      </c>
-      <c r="H17" s="79"/>
-      <c r="I17" s="91">
-        <f>Notes!E13</f>
-        <v>600</v>
-      </c>
+        <f>ROUND(G18*G7*1000,2)</f>
+        <v>1200000</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="79"/>
       <c r="J17" s="79"/>
       <c r="K17" s="79"/>
       <c r="L17" s="76"/>
       <c r="M17" s="79"/>
-      <c r="N17" s="148" t="s">
-        <v>97</v>
-      </c>
+      <c r="N17" s="148"/>
     </row>
     <row r="18" spans="2:14" ht="17" thickBot="1">
       <c r="B18" s="68"/>
-      <c r="C18" s="125" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="88">
-        <f>ROUND(G19*G6*1000,2)</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="79"/>
+      <c r="C18" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="119" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="84">
+        <f>I18</f>
+        <v>600</v>
+      </c>
+      <c r="H18" s="79"/>
+      <c r="I18" s="91">
+        <f>Notes!E13</f>
+        <v>600</v>
+      </c>
       <c r="J18" s="79"/>
       <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
+      <c r="L18" s="76"/>
       <c r="M18" s="79"/>
-      <c r="N18" s="148"/>
+      <c r="N18" s="148" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="19" spans="2:14" ht="17" thickBot="1">
       <c r="B19" s="68"/>
-      <c r="C19" s="118" t="s">
-        <v>87</v>
+      <c r="C19" s="125" t="s">
+        <v>82</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
-      <c r="F19" s="120" t="s">
-        <v>83</v>
+      <c r="F19" s="92" t="s">
+        <v>33</v>
       </c>
       <c r="G19" s="88">
+        <f>ROUND(G20*G7*1000,2)</f>
         <v>0</v>
       </c>
       <c r="H19" s="12"/>
-      <c r="I19" s="91">
-        <f>Notes!E32</f>
-        <v>0</v>
-      </c>
+      <c r="I19" s="79"/>
       <c r="J19" s="79"/>
       <c r="K19" s="79"/>
       <c r="L19" s="79"/>
       <c r="M19" s="79"/>
-      <c r="N19" s="148" t="s">
-        <v>96</v>
-      </c>
+      <c r="N19" s="148"/>
     </row>
     <row r="20" spans="2:14" ht="17" thickBot="1">
       <c r="B20" s="68"/>
-      <c r="C20" s="125" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="84">
-        <f>ROUND(G21*G6,2)</f>
-        <v>16</v>
-      </c>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
+      <c r="C20" s="118" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="88">
+        <v>0</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="91">
+        <f>Notes!E32</f>
+        <v>0</v>
+      </c>
       <c r="J20" s="79"/>
       <c r="K20" s="79"/>
       <c r="L20" s="79"/>
       <c r="M20" s="79"/>
-      <c r="N20" s="148"/>
+      <c r="N20" s="148" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="21" spans="2:14" ht="17" thickBot="1">
       <c r="B21" s="68"/>
-      <c r="C21" s="118" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="119" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="91">
-        <f>I21</f>
-        <v>8</v>
+      <c r="C21" s="125" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="84">
+        <f>ROUND(G22*G7,2)</f>
+        <v>16</v>
       </c>
       <c r="H21" s="79"/>
-      <c r="I21" s="91">
-        <f>Notes!E31</f>
-        <v>8</v>
-      </c>
+      <c r="I21" s="79"/>
       <c r="J21" s="79"/>
       <c r="K21" s="79"/>
       <c r="L21" s="79"/>
       <c r="M21" s="79"/>
-      <c r="N21" s="147"/>
+      <c r="N21" s="148"/>
     </row>
     <row r="22" spans="2:14" ht="17" thickBot="1">
-      <c r="B22" s="149"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="150"/>
-      <c r="H22" s="150"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="151"/>
-      <c r="K22" s="151"/>
-      <c r="L22" s="151"/>
-      <c r="M22" s="151"/>
-      <c r="N22" s="152"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="118" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="119" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="91">
+        <f>I22</f>
+        <v>8</v>
+      </c>
+      <c r="H22" s="79"/>
+      <c r="I22" s="91">
+        <f>Notes!E31</f>
+        <v>8</v>
+      </c>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="147"/>
+    </row>
+    <row r="23" spans="2:14" ht="17" thickBot="1">
+      <c r="B23" s="149"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="150"/>
+      <c r="F23" s="150"/>
+      <c r="G23" s="150"/>
+      <c r="H23" s="150"/>
+      <c r="I23" s="151"/>
+      <c r="J23" s="151"/>
+      <c r="K23" s="151"/>
+      <c r="L23" s="151"/>
+      <c r="M23" s="151"/>
+      <c r="N23" s="152"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3913,18 +3913,18 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="42" customWidth="1"/>
-    <col min="2" max="2" width="2.42578125" style="42" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="42" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="42" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="42" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="42" customWidth="1"/>
-    <col min="7" max="9" width="12.140625" style="42" customWidth="1"/>
-    <col min="10" max="10" width="35.140625" style="43" customWidth="1"/>
-    <col min="11" max="11" width="37.42578125" style="42" customWidth="1"/>
-    <col min="12" max="16384" width="33.140625" style="42"/>
+    <col min="1" max="1" width="3.33203125" style="42" customWidth="1"/>
+    <col min="2" max="2" width="2.5" style="42" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="42" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="42" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="42" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="42" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" style="42" customWidth="1"/>
+    <col min="10" max="10" width="35.1640625" style="43" customWidth="1"/>
+    <col min="11" max="11" width="37.5" style="42" customWidth="1"/>
+    <col min="12" max="16384" width="33.1640625" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
@@ -3969,7 +3969,7 @@
     <row r="5" spans="2:11">
       <c r="B5" s="52"/>
       <c r="C5" s="53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="53"/>
       <c r="E5" s="53" t="s">
@@ -3979,16 +3979,16 @@
         <v>19</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="53" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I5" s="53" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K5" s="53" t="s">
         <v>16</v>
@@ -4006,32 +4006,32 @@
       <c r="J6" s="49"/>
       <c r="K6" s="48"/>
     </row>
-    <row r="7" spans="2:11" ht="17">
+    <row r="7" spans="2:11" ht="34">
       <c r="B7" s="47"/>
       <c r="C7" s="55"/>
       <c r="D7" s="59"/>
       <c r="E7" s="55" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F7" s="56" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="57" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H7" s="57" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I7" s="57"/>
       <c r="J7" s="57" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K7" s="55"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="47"/>
       <c r="C8" s="59" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D8" s="59"/>
       <c r="E8" s="55"/>
@@ -4045,7 +4045,7 @@
     <row r="9" spans="2:11">
       <c r="B9" s="47"/>
       <c r="C9" s="59" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D9" s="59"/>
       <c r="E9" s="55"/>
@@ -4059,7 +4059,7 @@
     <row r="10" spans="2:11">
       <c r="B10" s="47"/>
       <c r="C10" s="59" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D10" s="59"/>
       <c r="E10" s="55"/>
@@ -4098,10 +4098,10 @@
       <c r="C13" s="55"/>
       <c r="D13" s="55"/>
       <c r="E13" s="50" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F13" s="55" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G13" s="62"/>
       <c r="H13" s="62"/>
@@ -4138,7 +4138,7 @@
     <row r="16" spans="2:11">
       <c r="B16" s="47"/>
       <c r="C16" s="59" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D16" s="55"/>
       <c r="E16" s="50"/>
@@ -4162,10 +4162,10 @@
         <v>6</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G19" s="42">
         <v>2010</v>
@@ -4174,7 +4174,7 @@
         <v>2010</v>
       </c>
       <c r="J19" s="43" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="2:10">
@@ -4198,12 +4198,12 @@
       <selection activeCell="C51" sqref="C50:C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="131" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" style="131" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="131" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="131"/>
+    <col min="1" max="1" width="5.83203125" style="131" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" style="131" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="131" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="131"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="17" thickBot="1"/>
@@ -4214,7 +4214,7 @@
       </c>
       <c r="D3" s="136"/>
       <c r="E3" s="136" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F3" s="136"/>
       <c r="G3" s="136"/>
@@ -4262,7 +4262,7 @@
     <row r="6" spans="2:15">
       <c r="B6" s="132"/>
       <c r="C6" s="133" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D6" s="133"/>
       <c r="E6" s="133"/>
@@ -4280,7 +4280,7 @@
     <row r="7" spans="2:15">
       <c r="B7" s="132"/>
       <c r="C7" s="133" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
@@ -4367,7 +4367,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="133" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G12" s="133"/>
       <c r="H12" s="133"/>
@@ -4383,13 +4383,13 @@
       <c r="B13" s="132"/>
       <c r="C13" s="133"/>
       <c r="D13" s="156" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E13" s="133">
         <v>600</v>
       </c>
       <c r="F13" s="133" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G13" s="133"/>
       <c r="H13" s="133"/>
@@ -4405,7 +4405,7 @@
       <c r="B14" s="132"/>
       <c r="C14" s="133"/>
       <c r="D14" s="153" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E14" s="133">
         <v>43</v>
@@ -4427,7 +4427,7 @@
       <c r="B15" s="132"/>
       <c r="C15" s="133"/>
       <c r="D15" s="153" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E15" s="133">
         <v>47</v>
@@ -4608,7 +4608,7 @@
     <row r="26" spans="2:15">
       <c r="B26" s="132"/>
       <c r="C26" s="133" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D26" s="133"/>
       <c r="E26" s="133"/>
@@ -4691,13 +4691,13 @@
       <c r="B31" s="132"/>
       <c r="C31" s="133"/>
       <c r="D31" s="133" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E31" s="133">
         <v>8</v>
       </c>
       <c r="F31" s="133" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G31" s="133"/>
       <c r="H31" s="133"/>
@@ -4713,13 +4713,13 @@
       <c r="B32" s="132"/>
       <c r="C32" s="133"/>
       <c r="D32" s="133" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E32" s="133">
         <v>0</v>
       </c>
       <c r="F32" s="133" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G32" s="133"/>
       <c r="H32" s="133"/>
@@ -5006,7 +5006,7 @@
     <row r="50" spans="2:15">
       <c r="B50" s="155"/>
       <c r="C50" s="133" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D50" s="133"/>
       <c r="E50" s="133"/>
@@ -5024,7 +5024,7 @@
     <row r="51" spans="2:15">
       <c r="B51" s="132"/>
       <c r="C51" s="156" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D51" s="133"/>
       <c r="E51" s="133"/>
@@ -5097,7 +5097,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F55" s="156" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G55" s="133"/>
       <c r="H55" s="133"/>
@@ -5119,7 +5119,7 @@
         <v>20</v>
       </c>
       <c r="F56" s="156" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G56" s="133"/>
       <c r="H56" s="133"/>
@@ -5295,7 +5295,7 @@
       <c r="B67" s="132"/>
       <c r="C67" s="133"/>
       <c r="D67" s="156" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E67" s="133"/>
       <c r="F67" s="133"/>
@@ -5313,13 +5313,13 @@
       <c r="B68" s="132"/>
       <c r="C68" s="133"/>
       <c r="D68" s="157" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E68" s="133">
         <v>250</v>
       </c>
       <c r="F68" s="156" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G68" s="133"/>
       <c r="H68" s="133"/>
